--- a/Geospatial data from SEDAC and GeoNetwork.xlsx
+++ b/Geospatial data from SEDAC and GeoNetwork.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papers\论文_融合WordNet和叙词表的专业词汇相似度算法及其在地理空间数据相似度计算中的应用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papers\论文_融合WordNet和叙词表的专业词汇相似度算法及其在地理空间数据相似度计算中的应用\数据\上传到GitHub的数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2302,18 +2302,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2625,21 +2625,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="57.44140625" customWidth="1"/>
     <col min="2" max="2" width="55.21875" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>-55.766666999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>-55.766666999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>8.0838160000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>-58.349606000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>-55.766666999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>-55.032285000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>-54.858001999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>-60.009337000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>-55.766666999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>-33.999999000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-55.766666999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>-14.360099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>17.958100999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>-45.880668</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>-45.879582999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>13.433567</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>-55.750000999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>-6815472</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>-8673539</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>-6815472</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>-89.918971999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>-54.751503</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>210</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>-6815472</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>-6815472</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>159</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>160</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>-6815472</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>163</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>190</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>191</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>192</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>193</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>194</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>195</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>196</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>197</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>198</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>199</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>200</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>201</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>202</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>203</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>33</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>169</v>
       </c>
@@ -8634,21 +8634,47 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>594</v>
+      </c>
+      <c r="B213" t="s">
+        <v>683</v>
+      </c>
+      <c r="C213" t="s">
+        <v>641</v>
+      </c>
+      <c r="D213">
+        <v>1990</v>
+      </c>
+      <c r="E213">
+        <v>2014</v>
+      </c>
+      <c r="F213">
+        <v>-180</v>
+      </c>
+      <c r="G213">
+        <v>180</v>
+      </c>
+      <c r="H213">
+        <v>90</v>
+      </c>
+      <c r="I213">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B214" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C214" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D214">
-        <v>1990</v>
-      </c>
-      <c r="E214">
-        <v>2014</v>
+        <v>37681</v>
       </c>
       <c r="F214">
         <v>-180</v>
@@ -8663,18 +8689,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B215" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C215" t="s">
-        <v>642</v>
-      </c>
-      <c r="D215">
-        <v>37681</v>
+        <v>643</v>
+      </c>
+      <c r="D215" t="s">
+        <v>725</v>
       </c>
       <c r="F215">
         <v>-180</v>
@@ -8689,18 +8715,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B216" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C216" t="s">
-        <v>643</v>
-      </c>
-      <c r="D216" t="s">
-        <v>725</v>
+        <v>644</v>
+      </c>
+      <c r="D216">
+        <v>39245</v>
       </c>
       <c r="F216">
         <v>-180</v>
@@ -8715,18 +8741,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B217" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C217" t="s">
-        <v>644</v>
-      </c>
-      <c r="D217">
-        <v>39245</v>
+        <v>645</v>
+      </c>
+      <c r="D217" t="s">
+        <v>726</v>
       </c>
       <c r="F217">
         <v>-180</v>
@@ -8741,18 +8767,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B218" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C218" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D218" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F218">
         <v>-180</v>
@@ -8767,18 +8793,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B219" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C219" t="s">
-        <v>646</v>
-      </c>
-      <c r="D219" t="s">
-        <v>727</v>
+        <v>647</v>
+      </c>
+      <c r="D219">
+        <v>39258</v>
       </c>
       <c r="F219">
         <v>-180</v>
@@ -8793,15 +8819,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B220" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C220" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D220">
         <v>39258</v>
@@ -8819,163 +8845,166 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B221" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C221" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D221">
-        <v>39258</v>
+        <v>36526</v>
+      </c>
+      <c r="E221">
+        <v>40542</v>
       </c>
       <c r="F221">
-        <v>-180</v>
+        <v>-82</v>
       </c>
       <c r="G221">
-        <v>180</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H221">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="I221">
+        <v>-55.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>603</v>
+      </c>
+      <c r="B222" t="s">
+        <v>692</v>
+      </c>
+      <c r="C222" t="s">
+        <v>650</v>
+      </c>
+      <c r="D222">
+        <v>34335</v>
+      </c>
+      <c r="E222">
+        <v>35794</v>
+      </c>
+      <c r="F222">
+        <v>40.25</v>
+      </c>
+      <c r="G222">
+        <v>158.71</v>
+      </c>
+      <c r="H222">
+        <v>55.02</v>
+      </c>
+      <c r="I222">
+        <v>-12.73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>604</v>
+      </c>
+      <c r="B223" t="s">
+        <v>693</v>
+      </c>
+      <c r="C223" t="s">
+        <v>651</v>
+      </c>
+      <c r="D223">
+        <v>36526</v>
+      </c>
+      <c r="E223">
+        <v>40542</v>
+      </c>
+      <c r="F223">
+        <v>-82</v>
+      </c>
+      <c r="G223">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H223">
+        <v>13</v>
+      </c>
+      <c r="I223">
+        <v>-55.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>605</v>
+      </c>
+      <c r="B224" t="s">
+        <v>694</v>
+      </c>
+      <c r="C224" t="s">
+        <v>652</v>
+      </c>
+      <c r="D224">
+        <v>34335</v>
+      </c>
+      <c r="E224">
+        <v>35794</v>
+      </c>
+      <c r="F224">
+        <v>40.25</v>
+      </c>
+      <c r="G224">
+        <v>158.71</v>
+      </c>
+      <c r="H224">
+        <v>55.02</v>
+      </c>
+      <c r="I224">
+        <v>-12.73</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>606</v>
+      </c>
+      <c r="B225" t="s">
+        <v>695</v>
+      </c>
+      <c r="C225" t="s">
+        <v>653</v>
+      </c>
+      <c r="D225">
+        <v>36526</v>
+      </c>
+      <c r="E225">
+        <v>36890</v>
+      </c>
+      <c r="F225">
+        <v>-180</v>
+      </c>
+      <c r="G225">
+        <v>180</v>
+      </c>
+      <c r="H225">
+        <v>90</v>
+      </c>
+      <c r="I225">
         <v>-90</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>602</v>
-      </c>
-      <c r="B222" t="s">
-        <v>691</v>
-      </c>
-      <c r="C222" t="s">
-        <v>649</v>
-      </c>
-      <c r="D222">
-        <v>36526</v>
-      </c>
-      <c r="E222">
-        <v>40542</v>
-      </c>
-      <c r="F222">
-        <v>-82</v>
-      </c>
-      <c r="G222">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H222">
-        <v>13</v>
-      </c>
-      <c r="I222">
-        <v>-55.4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>603</v>
-      </c>
-      <c r="B223" t="s">
-        <v>692</v>
-      </c>
-      <c r="C223" t="s">
-        <v>650</v>
-      </c>
-      <c r="D223">
-        <v>34335</v>
-      </c>
-      <c r="E223">
-        <v>35794</v>
-      </c>
-      <c r="F223">
-        <v>40.25</v>
-      </c>
-      <c r="G223">
-        <v>158.71</v>
-      </c>
-      <c r="H223">
-        <v>55.02</v>
-      </c>
-      <c r="I223">
-        <v>-12.73</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>604</v>
-      </c>
-      <c r="B224" t="s">
-        <v>693</v>
-      </c>
-      <c r="C224" t="s">
-        <v>651</v>
-      </c>
-      <c r="D224">
-        <v>36526</v>
-      </c>
-      <c r="E224">
-        <v>40542</v>
-      </c>
-      <c r="F224">
-        <v>-82</v>
-      </c>
-      <c r="G224">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H224">
-        <v>13</v>
-      </c>
-      <c r="I224">
-        <v>-55.4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>605</v>
-      </c>
-      <c r="B225" t="s">
-        <v>694</v>
-      </c>
-      <c r="C225" t="s">
-        <v>652</v>
-      </c>
-      <c r="D225">
-        <v>34335</v>
-      </c>
-      <c r="E225">
-        <v>35794</v>
-      </c>
-      <c r="F225">
-        <v>40.25</v>
-      </c>
-      <c r="G225">
-        <v>158.71</v>
-      </c>
-      <c r="H225">
-        <v>55.02</v>
-      </c>
-      <c r="I225">
-        <v>-12.73</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B226" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C226" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D226">
-        <v>36526</v>
+        <v>38353</v>
       </c>
       <c r="E226">
-        <v>36890</v>
+        <v>38716</v>
       </c>
       <c r="F226">
         <v>-180</v>
@@ -8990,15 +9019,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B227" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C227" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D227">
         <v>38353</v>
@@ -9019,21 +9048,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B228" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C228" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D228">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="E228">
-        <v>38716</v>
+        <v>39081</v>
       </c>
       <c r="F228">
         <v>-180</v>
@@ -9048,21 +9077,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B229" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C229" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D229">
-        <v>38718</v>
+        <v>39326</v>
       </c>
       <c r="E229">
-        <v>39081</v>
+        <v>39355</v>
       </c>
       <c r="F229">
         <v>-180</v>
@@ -9077,21 +9106,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B230" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C230" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D230">
-        <v>39326</v>
+        <v>38718</v>
       </c>
       <c r="E230">
-        <v>39355</v>
+        <v>39081</v>
       </c>
       <c r="F230">
         <v>-180</v>
@@ -9106,15 +9135,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B231" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C231" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D231">
         <v>38718</v>
@@ -9135,15 +9164,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B232" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C232" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D232">
         <v>38718</v>
@@ -9164,15 +9193,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B233" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C233" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D233">
         <v>38718</v>
@@ -9193,21 +9222,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B234" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="C234" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D234">
-        <v>38718</v>
+        <v>38353</v>
       </c>
       <c r="E234">
-        <v>39081</v>
+        <v>38716</v>
       </c>
       <c r="F234">
         <v>-180</v>
@@ -9222,15 +9251,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B235" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="C235" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D235">
         <v>38353</v>
@@ -9251,15 +9280,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B236" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C236" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D236">
         <v>38353</v>
@@ -9280,15 +9309,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C237" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D237">
         <v>38353</v>
@@ -9309,15 +9338,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B238" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C238" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D238">
         <v>38353</v>
@@ -9338,21 +9367,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B239" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C239" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D239">
-        <v>38353</v>
+        <v>39083</v>
       </c>
       <c r="E239">
-        <v>38716</v>
+        <v>39446</v>
       </c>
       <c r="F239">
         <v>-180</v>
@@ -9367,21 +9396,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B240" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C240" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D240">
-        <v>39083</v>
+        <v>36526</v>
       </c>
       <c r="E240">
-        <v>39446</v>
+        <v>36890</v>
       </c>
       <c r="F240">
         <v>-180</v>
@@ -9396,15 +9425,15 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B241" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C241" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D241">
         <v>36526</v>
@@ -9425,21 +9454,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B242" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C242" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D242">
-        <v>36526</v>
+        <v>39448</v>
       </c>
       <c r="E242">
-        <v>36890</v>
+        <v>39812</v>
       </c>
       <c r="F242">
         <v>-180</v>
@@ -9454,21 +9483,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B243" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C243" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D243">
-        <v>39448</v>
+        <v>36342</v>
       </c>
       <c r="E243">
-        <v>39812</v>
+        <v>36890</v>
       </c>
       <c r="F243">
         <v>-180</v>
@@ -9483,12 +9512,12 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B244" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C244" t="s">
         <v>667</v>
@@ -9512,18 +9541,18 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B245" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C245" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D245">
-        <v>36342</v>
+        <v>18629</v>
       </c>
       <c r="E245">
         <v>36890</v>
@@ -9541,21 +9570,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B246" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C246" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D246">
-        <v>18629</v>
+        <v>40179</v>
       </c>
       <c r="E246">
-        <v>36890</v>
+        <v>40542</v>
       </c>
       <c r="F246">
         <v>-180</v>
@@ -9564,21 +9593,21 @@
         <v>180</v>
       </c>
       <c r="H246">
-        <v>90</v>
+        <v>81.849930000000001</v>
       </c>
       <c r="I246">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34.59995</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>627</v>
+        <v>730</v>
       </c>
       <c r="B247" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="C247" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D247">
         <v>40179</v>
@@ -9593,21 +9622,21 @@
         <v>180</v>
       </c>
       <c r="H247">
-        <v>81.849930000000001</v>
+        <v>90</v>
       </c>
       <c r="I247">
-        <v>34.59995</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>730</v>
+        <v>628</v>
       </c>
       <c r="B248" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="C248" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D248">
         <v>40179</v>
@@ -9616,27 +9645,27 @@
         <v>40542</v>
       </c>
       <c r="F248">
-        <v>-180</v>
+        <v>-120.17</v>
       </c>
       <c r="G248">
-        <v>180</v>
+        <v>58.78</v>
       </c>
       <c r="H248">
-        <v>90</v>
+        <v>33.17</v>
       </c>
       <c r="I248">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-25.44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B249" t="s">
         <v>715</v>
       </c>
       <c r="C249" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D249">
         <v>40179</v>
@@ -9645,27 +9674,27 @@
         <v>40542</v>
       </c>
       <c r="F249">
-        <v>-120.17</v>
+        <v>58.833240000000004</v>
       </c>
       <c r="G249">
-        <v>58.78</v>
+        <v>99.166560000000004</v>
       </c>
       <c r="H249">
-        <v>33.17</v>
+        <v>39.26661</v>
       </c>
       <c r="I249">
-        <v>-25.44</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.4332900000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B250" t="s">
         <v>715</v>
       </c>
       <c r="C250" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D250">
         <v>40179</v>
@@ -9674,27 +9703,27 @@
         <v>40542</v>
       </c>
       <c r="F250">
-        <v>58.833240000000004</v>
+        <v>-25.333390000000001</v>
       </c>
       <c r="G250">
-        <v>99.166560000000004</v>
+        <v>72.499899999999997</v>
       </c>
       <c r="H250">
-        <v>39.26661</v>
+        <v>27.68328</v>
       </c>
       <c r="I250">
-        <v>5.4332900000000004</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-46.983350000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B251" t="s">
         <v>715</v>
       </c>
       <c r="C251" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D251">
         <v>40179</v>
@@ -9703,27 +9732,27 @@
         <v>40542</v>
       </c>
       <c r="F251">
-        <v>-25.333390000000001</v>
+        <v>-13.166729999999999</v>
       </c>
       <c r="G251">
-        <v>72.499899999999997</v>
+        <v>63.333240000000004</v>
       </c>
       <c r="H251">
-        <v>27.68328</v>
+        <v>39.76661</v>
       </c>
       <c r="I251">
-        <v>-46.983350000000002</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12.099959999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B252" t="s">
         <v>715</v>
       </c>
       <c r="C252" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D252">
         <v>40179</v>
@@ -9732,62 +9761,62 @@
         <v>40542</v>
       </c>
       <c r="F252">
-        <v>-13.166729999999999</v>
+        <v>-37.32</v>
       </c>
       <c r="G252">
-        <v>63.333240000000004</v>
+        <v>39.24</v>
       </c>
       <c r="H252">
-        <v>39.76661</v>
+        <v>82.99</v>
       </c>
       <c r="I252">
-        <v>12.099959999999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B253" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C253" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D253">
-        <v>40179</v>
+        <v>37622</v>
       </c>
       <c r="E253">
-        <v>40542</v>
+        <v>37985</v>
       </c>
       <c r="F253">
-        <v>-37.32</v>
+        <v>-180</v>
       </c>
       <c r="G253">
-        <v>39.24</v>
+        <v>180</v>
       </c>
       <c r="H253">
-        <v>82.99</v>
+        <v>90</v>
       </c>
       <c r="I253">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="B254" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C254" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D254">
-        <v>37622</v>
+        <v>36526</v>
       </c>
       <c r="E254">
-        <v>37985</v>
+        <v>36890</v>
       </c>
       <c r="F254">
         <v>-180</v>
@@ -9802,21 +9831,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="B255" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C255" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D255">
-        <v>36526</v>
+        <v>39083</v>
       </c>
       <c r="E255">
-        <v>36890</v>
+        <v>39446</v>
       </c>
       <c r="F255">
         <v>-180</v>
@@ -9831,44 +9860,44 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B256" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C256" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D256">
-        <v>39083</v>
+        <v>36526</v>
       </c>
       <c r="E256">
-        <v>39446</v>
+        <v>40542</v>
       </c>
       <c r="F256">
-        <v>-180</v>
+        <v>-93</v>
       </c>
       <c r="G256">
-        <v>180</v>
+        <v>-34</v>
       </c>
       <c r="H256">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I256">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B257" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C257" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D257">
         <v>36526</v>
@@ -9889,50 +9918,50 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B258" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C258" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D258">
-        <v>36526</v>
+        <v>37257</v>
       </c>
       <c r="E258">
-        <v>40542</v>
+        <v>37255</v>
       </c>
       <c r="F258">
-        <v>-93</v>
+        <v>-180</v>
       </c>
       <c r="G258">
-        <v>-34</v>
+        <v>180</v>
       </c>
       <c r="H258">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I258">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B259" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C259" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="D259">
-        <v>37257</v>
+        <v>39083</v>
       </c>
       <c r="E259">
-        <v>37255</v>
+        <v>39446</v>
       </c>
       <c r="F259">
         <v>-180</v>
@@ -9947,12 +9976,12 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B260" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C260" t="s">
         <v>663</v>
@@ -9976,21 +10005,21 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B261" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C261" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="D261">
-        <v>39083</v>
+        <v>29768</v>
       </c>
       <c r="E261">
-        <v>39446</v>
+        <v>37956</v>
       </c>
       <c r="F261">
         <v>-180</v>
@@ -10002,35 +10031,6 @@
         <v>90</v>
       </c>
       <c r="I261">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>640</v>
-      </c>
-      <c r="B262" t="s">
-        <v>724</v>
-      </c>
-      <c r="C262" t="s">
-        <v>682</v>
-      </c>
-      <c r="D262">
-        <v>29768</v>
-      </c>
-      <c r="E262">
-        <v>37956</v>
-      </c>
-      <c r="F262">
-        <v>-180</v>
-      </c>
-      <c r="G262">
-        <v>180</v>
-      </c>
-      <c r="H262">
-        <v>90</v>
-      </c>
-      <c r="I262">
         <v>-90</v>
       </c>
     </row>
